--- a/Code/Results/Cases/Case_5_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_206/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34774202621297</v>
+        <v>15.07846107257523</v>
       </c>
       <c r="C2">
-        <v>14.73359021300863</v>
+        <v>8.44894936692949</v>
       </c>
       <c r="D2">
-        <v>7.290713274559188</v>
+        <v>9.482794649331851</v>
       </c>
       <c r="E2">
-        <v>10.9607384377276</v>
+        <v>13.77982124675043</v>
       </c>
       <c r="F2">
-        <v>24.16479093308929</v>
+        <v>31.18773958003544</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.362657049248872</v>
+        <v>9.838890416809985</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.53833447746696</v>
+        <v>16.86215702231472</v>
       </c>
       <c r="O2">
-        <v>16.43313947922772</v>
+        <v>23.16503057641341</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90499707603619</v>
+        <v>14.54113448007726</v>
       </c>
       <c r="C3">
-        <v>13.79020435730439</v>
+        <v>7.961981145490929</v>
       </c>
       <c r="D3">
-        <v>6.983430191571169</v>
+        <v>9.440132079982583</v>
       </c>
       <c r="E3">
-        <v>10.49943562936005</v>
+        <v>13.72411774595253</v>
       </c>
       <c r="F3">
-        <v>23.38005505212302</v>
+        <v>31.1662710351466</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.241614353441275</v>
+        <v>9.844916739155243</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.67779494259966</v>
+        <v>16.91142088730059</v>
       </c>
       <c r="O3">
-        <v>16.08749834596571</v>
+        <v>23.20166491549961</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96704513227801</v>
+        <v>14.20295255604336</v>
       </c>
       <c r="C4">
-        <v>13.17774619752274</v>
+        <v>7.647229857235755</v>
       </c>
       <c r="D4">
-        <v>6.790767973746155</v>
+        <v>9.415314629859951</v>
       </c>
       <c r="E4">
-        <v>10.21241715840978</v>
+        <v>13.692666674456</v>
       </c>
       <c r="F4">
-        <v>22.91051488515196</v>
+        <v>31.16229911810463</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.170053836849866</v>
+        <v>9.850272393522664</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.7671625722118</v>
+        <v>16.94355136033888</v>
       </c>
       <c r="O4">
-        <v>15.8903012711877</v>
+        <v>23.23064480849447</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57163512206517</v>
+        <v>14.06327637199842</v>
       </c>
       <c r="C5">
-        <v>12.91980143365852</v>
+        <v>7.515091603985273</v>
       </c>
       <c r="D5">
-        <v>6.711361677245438</v>
+        <v>9.405554902380945</v>
       </c>
       <c r="E5">
-        <v>10.09466967933656</v>
+        <v>13.68055134426827</v>
       </c>
       <c r="F5">
-        <v>22.72247632578135</v>
+        <v>31.16299647663767</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.141601625882296</v>
+        <v>9.852871317558765</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.80450889938734</v>
+        <v>16.95711894110785</v>
       </c>
       <c r="O5">
-        <v>15.81370374894326</v>
+        <v>23.24408008534252</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.50517865378425</v>
+        <v>14.03997727293985</v>
       </c>
       <c r="C6">
-        <v>12.87646468563619</v>
+        <v>7.49291903440261</v>
       </c>
       <c r="D6">
-        <v>6.698125707901123</v>
+        <v>9.403955864620471</v>
       </c>
       <c r="E6">
-        <v>10.07507557858048</v>
+        <v>13.67858221507888</v>
       </c>
       <c r="F6">
-        <v>22.69145836207674</v>
+        <v>31.1632521126698</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.136920415800155</v>
+        <v>9.853328022106247</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.81076598476199</v>
+        <v>16.95940049030864</v>
       </c>
       <c r="O6">
-        <v>15.80121121406483</v>
+        <v>23.24640902508614</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96176600083452</v>
+        <v>14.20107608626509</v>
       </c>
       <c r="C7">
-        <v>13.17430133286581</v>
+        <v>7.645463354524271</v>
       </c>
       <c r="D7">
-        <v>6.789700542795979</v>
+        <v>9.41518156591831</v>
       </c>
       <c r="E7">
-        <v>10.2108321215546</v>
+        <v>13.69250043174801</v>
       </c>
       <c r="F7">
-        <v>22.90796527699227</v>
+        <v>31.16229914720028</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.169667229351023</v>
+        <v>9.85030575719305</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.76766249344312</v>
+        <v>16.94373241653498</v>
       </c>
       <c r="O7">
-        <v>15.88925305156506</v>
+        <v>23.23081942634349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86104474041387</v>
+        <v>14.89502703548895</v>
       </c>
       <c r="C8">
-        <v>14.41519489119179</v>
+        <v>8.284357798065225</v>
       </c>
       <c r="D8">
-        <v>7.185650658327885</v>
+        <v>9.467803124235692</v>
       </c>
       <c r="E8">
-        <v>10.80255754323474</v>
+        <v>13.76004961356274</v>
       </c>
       <c r="F8">
-        <v>23.89178933673633</v>
+        <v>31.17842633971456</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.320358084145794</v>
+        <v>9.840624836818359</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.58563694912524</v>
+        <v>16.87875304272801</v>
       </c>
       <c r="O8">
-        <v>16.31083730427267</v>
+        <v>23.17631289845743</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.17610783220825</v>
+        <v>16.18197489636041</v>
       </c>
       <c r="C9">
-        <v>16.58604659878475</v>
+        <v>9.409338431093836</v>
       </c>
       <c r="D9">
-        <v>7.926409122676876</v>
+        <v>9.581590364313003</v>
       </c>
       <c r="E9">
-        <v>11.92679037470898</v>
+        <v>13.91388887860089</v>
       </c>
       <c r="F9">
-        <v>25.9096433277047</v>
+        <v>31.28303896781037</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.637068400568095</v>
+        <v>9.834764589959892</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.25896842760119</v>
+        <v>16.76622606063953</v>
       </c>
       <c r="O9">
-        <v>17.25696758035647</v>
+        <v>23.1210978949262</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36778517058372</v>
+        <v>17.0726613952575</v>
       </c>
       <c r="C10">
-        <v>18.02294253591921</v>
+        <v>10.15497155153088</v>
       </c>
       <c r="D10">
-        <v>8.444422131418722</v>
+        <v>9.671178845861187</v>
       </c>
       <c r="E10">
-        <v>12.72396060117953</v>
+        <v>14.03928598334524</v>
       </c>
       <c r="F10">
-        <v>27.43532019404359</v>
+        <v>31.40414659051223</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.881777653255019</v>
+        <v>9.838438674156544</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.03844637901629</v>
+        <v>16.69258312297936</v>
       </c>
       <c r="O10">
-        <v>18.02456472578546</v>
+        <v>23.11226970770469</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.31316519154355</v>
+        <v>17.46425112024087</v>
       </c>
       <c r="C11">
-        <v>18.64288826354859</v>
+        <v>10.47621611380617</v>
       </c>
       <c r="D11">
-        <v>8.673698100715665</v>
+        <v>9.713128027480735</v>
       </c>
       <c r="E11">
-        <v>13.07933747701804</v>
+        <v>14.09886259454934</v>
       </c>
       <c r="F11">
-        <v>28.13691138421415</v>
+        <v>31.4687541162844</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.995540836390298</v>
+        <v>9.841835627596641</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.94263543101207</v>
+        <v>16.6610315156433</v>
       </c>
       <c r="O11">
-        <v>18.38934708268274</v>
+        <v>23.11517968788383</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.66384175982817</v>
+        <v>17.61046284851115</v>
       </c>
       <c r="C12">
-        <v>18.87285307089887</v>
+        <v>10.59525922326157</v>
       </c>
       <c r="D12">
-        <v>8.759560631288791</v>
+        <v>9.729175382349323</v>
       </c>
       <c r="E12">
-        <v>13.21280534971084</v>
+        <v>14.12177270271668</v>
       </c>
       <c r="F12">
-        <v>28.40355373396381</v>
+        <v>31.49457606352583</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.038959203587372</v>
+        <v>9.843369229392483</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.90703062331136</v>
+        <v>16.64936325708241</v>
       </c>
       <c r="O12">
-        <v>18.52970997227608</v>
+        <v>23.11727895438457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.58864104207296</v>
+        <v>17.5790675774363</v>
       </c>
       <c r="C13">
-        <v>18.82353841772259</v>
+        <v>10.56973734848652</v>
       </c>
       <c r="D13">
-        <v>8.741111840161158</v>
+        <v>9.725712244858121</v>
       </c>
       <c r="E13">
-        <v>13.18411061939925</v>
+        <v>14.11682328316196</v>
       </c>
       <c r="F13">
-        <v>28.34608619881886</v>
+        <v>31.48895472476961</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.029593389477886</v>
+        <v>9.843027960018739</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.91466815480802</v>
+        <v>16.65186379714668</v>
       </c>
       <c r="O13">
-        <v>18.49938141915071</v>
+        <v>23.11678247114969</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.34216161366278</v>
+        <v>17.47632226750068</v>
       </c>
       <c r="C14">
-        <v>18.66190339280664</v>
+        <v>10.48606219165943</v>
       </c>
       <c r="D14">
-        <v>8.680781498573301</v>
+        <v>9.714445060651016</v>
       </c>
       <c r="E14">
-        <v>13.09034040706559</v>
+        <v>14.10074049870997</v>
       </c>
       <c r="F14">
-        <v>28.15882945001581</v>
+        <v>31.47085139232829</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.999106166144188</v>
+        <v>9.841956848300313</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.93969245965899</v>
+        <v>16.66006595974645</v>
       </c>
       <c r="O14">
-        <v>18.40085024383015</v>
+        <v>23.11533240326938</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.19023599178472</v>
+        <v>17.41311427131692</v>
       </c>
       <c r="C15">
-        <v>18.56227443014691</v>
+        <v>10.43446885049684</v>
       </c>
       <c r="D15">
-        <v>8.643701391207737</v>
+        <v>9.707564403783312</v>
       </c>
       <c r="E15">
-        <v>13.03275793533764</v>
+        <v>14.09093443517527</v>
       </c>
       <c r="F15">
-        <v>28.04425190847939</v>
+        <v>31.45993884747243</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.980475642202173</v>
+        <v>9.841332931752449</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.95510962405889</v>
+        <v>16.6651264224239</v>
       </c>
       <c r="O15">
-        <v>18.34078680375619</v>
+        <v>23.11457410116715</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.30497242724798</v>
+        <v>17.04678597651355</v>
       </c>
       <c r="C16">
-        <v>17.98175366320856</v>
+        <v>10.13361407534816</v>
       </c>
       <c r="D16">
-        <v>8.429306275820164</v>
+        <v>9.668460588273357</v>
       </c>
       <c r="E16">
-        <v>12.70058411288349</v>
+        <v>14.03544225489206</v>
       </c>
       <c r="F16">
-        <v>27.38961046872393</v>
+        <v>31.40011484482707</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.874390991775211</v>
+        <v>9.838251325911784</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.04480088448216</v>
+        <v>16.69468426003273</v>
       </c>
       <c r="O16">
-        <v>18.00103780663909</v>
+        <v>23.11221903929683</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.74874293127871</v>
+        <v>16.81848428242031</v>
       </c>
       <c r="C17">
-        <v>17.61702506354769</v>
+        <v>9.944433091413348</v>
       </c>
       <c r="D17">
-        <v>8.296115972381761</v>
+        <v>9.644770882132606</v>
       </c>
       <c r="E17">
-        <v>12.49489713827783</v>
+        <v>14.00203821258964</v>
       </c>
       <c r="F17">
-        <v>26.98984755123227</v>
+        <v>31.36584407326659</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.809927562602786</v>
+        <v>9.836802239698718</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.10099679362798</v>
+        <v>16.71331576683323</v>
       </c>
       <c r="O17">
-        <v>17.79659571292123</v>
+        <v>23.1125494466825</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.42394867745855</v>
+        <v>16.68589841379105</v>
       </c>
       <c r="C18">
-        <v>17.40406684035734</v>
+        <v>9.833932860037081</v>
       </c>
       <c r="D18">
-        <v>8.218910666512222</v>
+        <v>9.631258261508332</v>
       </c>
       <c r="E18">
-        <v>12.37591060485859</v>
+        <v>13.9830644010614</v>
       </c>
       <c r="F18">
-        <v>26.76063079278056</v>
+        <v>31.34702887183796</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.773080537272319</v>
+        <v>9.836131247031188</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.13374132554937</v>
+        <v>16.72421559409184</v>
       </c>
       <c r="O18">
-        <v>17.68047500835338</v>
+        <v>23.1133913657481</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.31314009438551</v>
+        <v>16.64079245322498</v>
       </c>
       <c r="C19">
-        <v>17.33141589105886</v>
+        <v>9.796230259898625</v>
       </c>
       <c r="D19">
-        <v>8.192669101058916</v>
+        <v>9.626702832438697</v>
       </c>
       <c r="E19">
-        <v>12.33550905375514</v>
+        <v>13.9766817274431</v>
       </c>
       <c r="F19">
-        <v>26.68314916909624</v>
+        <v>31.34081265722795</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760644807647916</v>
+        <v>9.835931991857258</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.1448997512255</v>
+        <v>16.7279376195763</v>
       </c>
       <c r="O19">
-        <v>17.64141137161117</v>
+        <v>23.11378832951455</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.80845735073365</v>
+        <v>16.8429200388182</v>
       </c>
       <c r="C20">
-        <v>17.65617939204445</v>
+        <v>9.964746663557554</v>
       </c>
       <c r="D20">
-        <v>8.3103565207253</v>
+        <v>9.647281058889384</v>
       </c>
       <c r="E20">
-        <v>12.51686383503118</v>
+        <v>14.00556946520535</v>
       </c>
       <c r="F20">
-        <v>27.0323298409154</v>
+        <v>31.36939955591627</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.816766035181559</v>
+        <v>9.836939686961472</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.09497075852321</v>
+        <v>16.71131342635639</v>
       </c>
       <c r="O20">
-        <v>17.81820701540787</v>
+        <v>23.11244679460344</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.41475635053823</v>
+        <v>17.50655825298745</v>
       </c>
       <c r="C21">
-        <v>18.70950921719244</v>
+        <v>10.51071048128759</v>
       </c>
       <c r="D21">
-        <v>8.698528309492909</v>
+        <v>9.717750184844096</v>
       </c>
       <c r="E21">
-        <v>13.11791340031507</v>
+        <v>14.10545502890244</v>
       </c>
       <c r="F21">
-        <v>28.21380591205128</v>
+        <v>31.47613206948908</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.008051897529785</v>
+        <v>9.842264757301965</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.93232359836462</v>
+        <v>16.65764920081985</v>
       </c>
       <c r="O21">
-        <v>18.42973087413662</v>
+        <v>23.1157312497682</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.42196125771528</v>
+        <v>17.92814504276761</v>
       </c>
       <c r="C22">
-        <v>19.36999923919999</v>
+        <v>10.85233708317559</v>
       </c>
       <c r="D22">
-        <v>8.946616732816718</v>
+        <v>9.764746058324715</v>
       </c>
       <c r="E22">
-        <v>13.50427350415872</v>
+        <v>14.172767440506</v>
       </c>
       <c r="F22">
-        <v>28.9915608192796</v>
+        <v>31.55378763100743</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.135038762347771</v>
+        <v>9.847185642317889</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.82998517130164</v>
+        <v>16.62420628187085</v>
       </c>
       <c r="O22">
-        <v>18.84237947333586</v>
+        <v>23.12369099130143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.88825925825445</v>
+        <v>17.70428303281442</v>
       </c>
       <c r="C23">
-        <v>19.02001956807616</v>
+        <v>10.67140107951897</v>
       </c>
       <c r="D23">
-        <v>8.814731638283943</v>
+        <v>9.739580718998933</v>
       </c>
       <c r="E23">
-        <v>13.29867273371404</v>
+        <v>14.13666059856419</v>
       </c>
       <c r="F23">
-        <v>28.57597824889665</v>
+        <v>31.51162299396027</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.067086637158207</v>
+        <v>9.844427785316659</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.88423206159051</v>
+        <v>16.64190646726256</v>
       </c>
       <c r="O23">
-        <v>18.62095675465092</v>
+        <v>23.11891059629558</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.78147607621525</v>
+        <v>16.83187677344097</v>
       </c>
       <c r="C24">
-        <v>17.63848791206867</v>
+        <v>9.955568307847257</v>
       </c>
       <c r="D24">
-        <v>8.30392033528917</v>
+        <v>9.646145874248417</v>
       </c>
       <c r="E24">
-        <v>12.50693497388218</v>
+        <v>14.0039722664719</v>
       </c>
       <c r="F24">
-        <v>27.01312168106346</v>
+        <v>31.36778935671551</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.813673694604964</v>
+        <v>9.836877042042765</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.09769377072582</v>
+        <v>16.7122180977928</v>
       </c>
       <c r="O24">
-        <v>17.80843213445562</v>
+        <v>23.1124911728433</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.32254975374975</v>
+        <v>15.84281578287486</v>
       </c>
       <c r="C25">
-        <v>16.02669921572205</v>
+        <v>9.119040710064523</v>
       </c>
       <c r="D25">
-        <v>7.730346006363571</v>
+        <v>9.549720652922057</v>
       </c>
       <c r="E25">
-        <v>11.62730161715006</v>
+        <v>13.87004790491671</v>
       </c>
       <c r="F25">
-        <v>25.35546639423251</v>
+        <v>31.24694186168523</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.549214916737743</v>
+        <v>9.834946569094265</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.3440038019778</v>
+        <v>16.79507811521203</v>
       </c>
       <c r="O25">
-        <v>16.98823752313564</v>
+        <v>23.13047551476544</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_206/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.07846107257523</v>
+        <v>21.34774202621298</v>
       </c>
       <c r="C2">
-        <v>8.44894936692949</v>
+        <v>14.73359021300862</v>
       </c>
       <c r="D2">
-        <v>9.482794649331851</v>
+        <v>7.290713274559112</v>
       </c>
       <c r="E2">
-        <v>13.77982124675043</v>
+        <v>10.96073843772758</v>
       </c>
       <c r="F2">
-        <v>31.18773958003544</v>
+        <v>24.16479093308922</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.838890416809985</v>
+        <v>6.362657049248839</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.86215702231472</v>
+        <v>11.53833447746696</v>
       </c>
       <c r="O2">
-        <v>23.16503057641341</v>
+        <v>16.43313947922769</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.54113448007726</v>
+        <v>19.90499707603623</v>
       </c>
       <c r="C3">
-        <v>7.961981145490929</v>
+        <v>13.79020435730447</v>
       </c>
       <c r="D3">
-        <v>9.440132079982583</v>
+        <v>6.983430191571226</v>
       </c>
       <c r="E3">
-        <v>13.72411774595253</v>
+        <v>10.49943562936003</v>
       </c>
       <c r="F3">
-        <v>31.1662710351466</v>
+        <v>23.38005505212301</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.844916739155243</v>
+        <v>6.241614353441205</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.91142088730059</v>
+        <v>11.67779494259963</v>
       </c>
       <c r="O3">
-        <v>23.20166491549961</v>
+        <v>16.08749834596564</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.20295255604336</v>
+        <v>18.96704513227809</v>
       </c>
       <c r="C4">
-        <v>7.647229857235755</v>
+        <v>13.1777461975229</v>
       </c>
       <c r="D4">
-        <v>9.415314629859951</v>
+        <v>6.790767973746126</v>
       </c>
       <c r="E4">
-        <v>13.692666674456</v>
+        <v>10.21241715840979</v>
       </c>
       <c r="F4">
-        <v>31.16229911810463</v>
+        <v>22.91051488515178</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.850272393522664</v>
+        <v>6.170053836849871</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.94355136033888</v>
+        <v>11.76716257221173</v>
       </c>
       <c r="O4">
-        <v>23.23064480849447</v>
+        <v>15.89030127118752</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.06327637199842</v>
+        <v>18.57163512206524</v>
       </c>
       <c r="C5">
-        <v>7.515091603985273</v>
+        <v>12.91980143365839</v>
       </c>
       <c r="D5">
-        <v>9.405554902380945</v>
+        <v>6.711361677245415</v>
       </c>
       <c r="E5">
-        <v>13.68055134426827</v>
+        <v>10.09466967933661</v>
       </c>
       <c r="F5">
-        <v>31.16299647663767</v>
+        <v>22.72247632578129</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.852871317558765</v>
+        <v>6.141601625882394</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.95711894110785</v>
+        <v>11.80450889938731</v>
       </c>
       <c r="O5">
-        <v>23.24408008534252</v>
+        <v>15.81370374894319</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.03997727293985</v>
+        <v>18.50517865378417</v>
       </c>
       <c r="C6">
-        <v>7.49291903440261</v>
+        <v>12.87646468563627</v>
       </c>
       <c r="D6">
-        <v>9.403955864620471</v>
+        <v>6.698125707901094</v>
       </c>
       <c r="E6">
-        <v>13.67858221507888</v>
+        <v>10.07507557858047</v>
       </c>
       <c r="F6">
-        <v>31.1632521126698</v>
+        <v>22.69145836207679</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.853328022106247</v>
+        <v>6.136920415800137</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.95940049030864</v>
+        <v>11.81076598476195</v>
       </c>
       <c r="O6">
-        <v>23.24640902508614</v>
+        <v>15.8012112140649</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.20107608626509</v>
+        <v>18.96176600083453</v>
       </c>
       <c r="C7">
-        <v>7.645463354524271</v>
+        <v>13.17430133286581</v>
       </c>
       <c r="D7">
-        <v>9.41518156591831</v>
+        <v>6.789700542795971</v>
       </c>
       <c r="E7">
-        <v>13.69250043174801</v>
+        <v>10.21083212155459</v>
       </c>
       <c r="F7">
-        <v>31.16229914720028</v>
+        <v>22.90796527699226</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.85030575719305</v>
+        <v>6.169667229350996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.94373241653498</v>
+        <v>11.76766249344312</v>
       </c>
       <c r="O7">
-        <v>23.23081942634349</v>
+        <v>15.88925305156506</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.89502703548895</v>
+        <v>20.86104474041389</v>
       </c>
       <c r="C8">
-        <v>8.284357798065225</v>
+        <v>14.41519489119176</v>
       </c>
       <c r="D8">
-        <v>9.467803124235692</v>
+        <v>7.185650658327823</v>
       </c>
       <c r="E8">
-        <v>13.76004961356274</v>
+        <v>10.80255754323466</v>
       </c>
       <c r="F8">
-        <v>31.17842633971456</v>
+        <v>23.89178933673631</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.840624836818359</v>
+        <v>6.320358084145711</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.87875304272801</v>
+        <v>11.58563694912523</v>
       </c>
       <c r="O8">
-        <v>23.17631289845743</v>
+        <v>16.31083730427268</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.18197489636041</v>
+        <v>24.1761078322082</v>
       </c>
       <c r="C9">
-        <v>9.409338431093836</v>
+        <v>16.58604659878453</v>
       </c>
       <c r="D9">
-        <v>9.581590364313003</v>
+        <v>7.926409122676838</v>
       </c>
       <c r="E9">
-        <v>13.91388887860089</v>
+        <v>11.92679037470894</v>
       </c>
       <c r="F9">
-        <v>31.28303896781037</v>
+        <v>25.90964332770471</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.834764589959892</v>
+        <v>6.637068400568092</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.76622606063953</v>
+        <v>11.25896842760123</v>
       </c>
       <c r="O9">
-        <v>23.1210978949262</v>
+        <v>17.25696758035653</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.0726613952575</v>
+        <v>26.36778517058379</v>
       </c>
       <c r="C10">
-        <v>10.15497155153088</v>
+        <v>18.02294253591934</v>
       </c>
       <c r="D10">
-        <v>9.671178845861187</v>
+        <v>8.444422131418717</v>
       </c>
       <c r="E10">
-        <v>14.03928598334524</v>
+        <v>12.72396060117949</v>
       </c>
       <c r="F10">
-        <v>31.40414659051223</v>
+        <v>27.43532019404356</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.838438674156544</v>
+        <v>6.881777653255004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.69258312297936</v>
+        <v>11.03844637901628</v>
       </c>
       <c r="O10">
-        <v>23.11226970770469</v>
+        <v>18.02456472578543</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.46425112024087</v>
+        <v>27.31316519154356</v>
       </c>
       <c r="C11">
-        <v>10.47621611380617</v>
+        <v>18.64288826354865</v>
       </c>
       <c r="D11">
-        <v>9.713128027480735</v>
+        <v>8.673698100715557</v>
       </c>
       <c r="E11">
-        <v>14.09886259454934</v>
+        <v>13.07933747701802</v>
       </c>
       <c r="F11">
-        <v>31.4687541162844</v>
+        <v>28.13691138421411</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.841835627596641</v>
+        <v>6.99554083639033</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.6610315156433</v>
+        <v>10.94263543101203</v>
       </c>
       <c r="O11">
-        <v>23.11517968788383</v>
+        <v>18.38934708268271</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61046284851115</v>
+        <v>27.66384175982816</v>
       </c>
       <c r="C12">
-        <v>10.59525922326157</v>
+        <v>18.87285307089897</v>
       </c>
       <c r="D12">
-        <v>9.729175382349323</v>
+        <v>8.759560631288762</v>
       </c>
       <c r="E12">
-        <v>14.12177270271668</v>
+        <v>13.21280534971086</v>
       </c>
       <c r="F12">
-        <v>31.49457606352583</v>
+        <v>28.40355373396378</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.843369229392483</v>
+        <v>7.038959203587379</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.64936325708241</v>
+        <v>10.90703062331136</v>
       </c>
       <c r="O12">
-        <v>23.11727895438457</v>
+        <v>18.52970997227605</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.5790675774363</v>
+        <v>27.58864104207293</v>
       </c>
       <c r="C13">
-        <v>10.56973734848652</v>
+        <v>18.82353841772265</v>
       </c>
       <c r="D13">
-        <v>9.725712244858121</v>
+        <v>8.741111840161198</v>
       </c>
       <c r="E13">
-        <v>14.11682328316196</v>
+        <v>13.18411061939927</v>
       </c>
       <c r="F13">
-        <v>31.48895472476961</v>
+        <v>28.34608619881888</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.843027960018739</v>
+        <v>7.029593389477844</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.65186379714668</v>
+        <v>10.91466815480802</v>
       </c>
       <c r="O13">
-        <v>23.11678247114969</v>
+        <v>18.49938141915073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.47632226750068</v>
+        <v>27.34216161366268</v>
       </c>
       <c r="C14">
-        <v>10.48606219165943</v>
+        <v>18.66190339280667</v>
       </c>
       <c r="D14">
-        <v>9.714445060651016</v>
+        <v>8.680781498573225</v>
       </c>
       <c r="E14">
-        <v>14.10074049870997</v>
+        <v>13.09034040706556</v>
       </c>
       <c r="F14">
-        <v>31.47085139232829</v>
+        <v>28.15882945001583</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.841956848300313</v>
+        <v>6.99910616614414</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.66006595974645</v>
+        <v>10.93969245965909</v>
       </c>
       <c r="O14">
-        <v>23.11533240326938</v>
+        <v>18.40085024383021</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.41311427131692</v>
+        <v>27.19023599178477</v>
       </c>
       <c r="C15">
-        <v>10.43446885049684</v>
+        <v>18.56227443014695</v>
       </c>
       <c r="D15">
-        <v>9.707564403783312</v>
+        <v>8.643701391207738</v>
       </c>
       <c r="E15">
-        <v>14.09093443517527</v>
+        <v>13.03275793533765</v>
       </c>
       <c r="F15">
-        <v>31.45993884747243</v>
+        <v>28.0442519084794</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.841332931752449</v>
+        <v>6.980475642202179</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.6651264224239</v>
+        <v>10.95510962405888</v>
       </c>
       <c r="O15">
-        <v>23.11457410116715</v>
+        <v>18.34078680375618</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.04678597651355</v>
+        <v>26.30497242724798</v>
       </c>
       <c r="C16">
-        <v>10.13361407534816</v>
+        <v>17.98175366320867</v>
       </c>
       <c r="D16">
-        <v>9.668460588273357</v>
+        <v>8.429306275820156</v>
       </c>
       <c r="E16">
-        <v>14.03544225489206</v>
+        <v>12.7005841128835</v>
       </c>
       <c r="F16">
-        <v>31.40011484482707</v>
+        <v>27.3896104687239</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.838251325911784</v>
+        <v>6.874390991775209</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.69468426003273</v>
+        <v>11.04480088448209</v>
       </c>
       <c r="O16">
-        <v>23.11221903929683</v>
+        <v>18.00103780663905</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.81848428242031</v>
+        <v>25.74874293127873</v>
       </c>
       <c r="C17">
-        <v>9.944433091413348</v>
+        <v>17.61702506354768</v>
       </c>
       <c r="D17">
-        <v>9.644770882132606</v>
+        <v>8.296115972381743</v>
       </c>
       <c r="E17">
-        <v>14.00203821258964</v>
+        <v>12.49489713827784</v>
       </c>
       <c r="F17">
-        <v>31.36584407326659</v>
+        <v>26.98984755123224</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.836802239698718</v>
+        <v>6.809927562602828</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.71331576683323</v>
+        <v>11.10099679362795</v>
       </c>
       <c r="O17">
-        <v>23.1125494466825</v>
+        <v>17.79659571292121</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.68589841379105</v>
+        <v>25.42394867745856</v>
       </c>
       <c r="C18">
-        <v>9.833932860037081</v>
+        <v>17.40406684035723</v>
       </c>
       <c r="D18">
-        <v>9.631258261508332</v>
+        <v>8.218910666512183</v>
       </c>
       <c r="E18">
-        <v>13.9830644010614</v>
+        <v>12.37591060485855</v>
       </c>
       <c r="F18">
-        <v>31.34702887183796</v>
+        <v>26.76063079278056</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.836131247031188</v>
+        <v>6.773080537272285</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.72421559409184</v>
+        <v>11.13374132554934</v>
       </c>
       <c r="O18">
-        <v>23.1133913657481</v>
+        <v>17.68047500835339</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.64079245322498</v>
+        <v>25.3131400943855</v>
       </c>
       <c r="C19">
-        <v>9.796230259898625</v>
+        <v>17.33141589105892</v>
       </c>
       <c r="D19">
-        <v>9.626702832438697</v>
+        <v>8.192669101058963</v>
       </c>
       <c r="E19">
-        <v>13.9766817274431</v>
+        <v>12.33550905375517</v>
       </c>
       <c r="F19">
-        <v>31.34081265722795</v>
+        <v>26.68314916909621</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.835931991857258</v>
+        <v>6.760644807647953</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.7279376195763</v>
+        <v>11.14489975122549</v>
       </c>
       <c r="O19">
-        <v>23.11378832951455</v>
+        <v>17.64141137161114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.8429200388182</v>
+        <v>25.80845735073365</v>
       </c>
       <c r="C20">
-        <v>9.964746663557554</v>
+        <v>17.65617939204464</v>
       </c>
       <c r="D20">
-        <v>9.647281058889384</v>
+        <v>8.310356520725291</v>
       </c>
       <c r="E20">
-        <v>14.00556946520535</v>
+        <v>12.51686383503121</v>
       </c>
       <c r="F20">
-        <v>31.36939955591627</v>
+        <v>27.03232984091535</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.836939686961472</v>
+        <v>6.81676603518159</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.71131342635639</v>
+        <v>11.09497075852318</v>
       </c>
       <c r="O20">
-        <v>23.11244679460344</v>
+        <v>17.81820701540781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.50655825298745</v>
+        <v>27.41475635053821</v>
       </c>
       <c r="C21">
-        <v>10.51071048128759</v>
+        <v>18.70950921719229</v>
       </c>
       <c r="D21">
-        <v>9.717750184844096</v>
+        <v>8.698528309492858</v>
       </c>
       <c r="E21">
-        <v>14.10545502890244</v>
+        <v>13.11791340031508</v>
       </c>
       <c r="F21">
-        <v>31.47613206948908</v>
+        <v>28.21380591205129</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.842264757301965</v>
+        <v>7.008051897529801</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.65764920081985</v>
+        <v>10.93232359836462</v>
       </c>
       <c r="O21">
-        <v>23.1157312497682</v>
+        <v>18.42973087413667</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.92814504276761</v>
+        <v>28.42196125771534</v>
       </c>
       <c r="C22">
-        <v>10.85233708317559</v>
+        <v>19.36999923919992</v>
       </c>
       <c r="D22">
-        <v>9.764746058324715</v>
+        <v>8.946616732816722</v>
       </c>
       <c r="E22">
-        <v>14.172767440506</v>
+        <v>13.50427350415874</v>
       </c>
       <c r="F22">
-        <v>31.55378763100743</v>
+        <v>28.99156081927958</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.847185642317889</v>
+        <v>7.135038762347759</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.62420628187085</v>
+        <v>10.82998517130156</v>
       </c>
       <c r="O22">
-        <v>23.12369099130143</v>
+        <v>18.84237947333583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.70428303281442</v>
+        <v>27.88825925825444</v>
       </c>
       <c r="C23">
-        <v>10.67140107951897</v>
+        <v>19.02001956807624</v>
       </c>
       <c r="D23">
-        <v>9.739580718998933</v>
+        <v>8.814731638283984</v>
       </c>
       <c r="E23">
-        <v>14.13666059856419</v>
+        <v>13.29867273371405</v>
       </c>
       <c r="F23">
-        <v>31.51162299396027</v>
+        <v>28.57597824889667</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.844427785316659</v>
+        <v>7.0670866371582</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.64190646726256</v>
+        <v>10.88423206159048</v>
       </c>
       <c r="O23">
-        <v>23.11891059629558</v>
+        <v>18.62095675465091</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.83187677344097</v>
+        <v>25.78147607621523</v>
       </c>
       <c r="C24">
-        <v>9.955568307847257</v>
+        <v>17.63848791206868</v>
       </c>
       <c r="D24">
-        <v>9.646145874248417</v>
+        <v>8.303920335289208</v>
       </c>
       <c r="E24">
-        <v>14.0039722664719</v>
+        <v>12.50693497388217</v>
       </c>
       <c r="F24">
-        <v>31.36778935671551</v>
+        <v>27.01312168106348</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.836877042042765</v>
+        <v>6.813673694604947</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.7122180977928</v>
+        <v>11.09769377072585</v>
       </c>
       <c r="O24">
-        <v>23.1124911728433</v>
+        <v>17.80843213445564</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.84281578287486</v>
+        <v>23.32254975374978</v>
       </c>
       <c r="C25">
-        <v>9.119040710064523</v>
+        <v>16.02669921572202</v>
       </c>
       <c r="D25">
-        <v>9.549720652922057</v>
+        <v>7.730346006363585</v>
       </c>
       <c r="E25">
-        <v>13.87004790491671</v>
+        <v>11.62730161715004</v>
       </c>
       <c r="F25">
-        <v>31.24694186168523</v>
+        <v>25.35546639423241</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.834946569094265</v>
+        <v>6.549214916737714</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.79507811521203</v>
+        <v>11.34400380197774</v>
       </c>
       <c r="O25">
-        <v>23.13047551476544</v>
+        <v>16.98823752313557</v>
       </c>
     </row>
   </sheetData>
